--- a/biology/Botanique/Xylopia_frutescens/Xylopia_frutescens.xlsx
+++ b/biology/Botanique/Xylopia_frutescens/Xylopia_frutescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xylopia frutescens est une espèce de petit arbre néotropicale appartenant à la famille des Annonaceae, connue en Guyane sous les noms de lamoussé ou lanmousé (créole), yãwĩ'ɨ sili (Wayãpi), pukuu (Palikuyene)[2] et pendjeku (Aluku)[3].
-Il est connu au Brésil sous les noms de pindaíba, coagerucu, embira, envira-branca, envira, jererecou, pau de embira, pejerecum, pijerecu, pimento-de-gentio, pimenta-do-sertão, pindaúba[4],[5].
-Au Suriname, on l'appelle Pegrekoe (Sranan tongo), Kwiengé, Koengé (Saramaka), Arara (Arawak), Awijoen (Karib)[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xylopia frutescens est une espèce de petit arbre néotropicale appartenant à la famille des Annonaceae, connue en Guyane sous les noms de lamoussé ou lanmousé (créole), yãwĩ'ɨ sili (Wayãpi), pukuu (Palikuyene) et pendjeku (Aluku).
+Il est connu au Brésil sous les noms de pindaíba, coagerucu, embira, envira-branca, envira, jererecou, pau de embira, pejerecum, pijerecu, pimento-de-gentio, pimenta-do-sertão, pindaúba,.
+Au Suriname, on l'appelle Pegrekoe (Sranan tongo), Kwiengé, Koengé (Saramaka), Arara (Arawak), Awijoen (Karib).
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylopia frutescens est un arbre ou arbuste atteignant 10–15 m pour 15 cm de diamètre. Les jeunes rameaux sont densément couverts de poils dressés persistants, blancs à plus ou moins rousseâtres, et longs d'environ 2 mm. Les feuilles sont rigides, glabres sur la face supérieure, densément couvertes de longs poils soyeux, blancs, apprimés sur la face abaxiale. Le pétioles mesure de 2 à 4 mm de long et 1 mm de diamètre. Le limbe, étroitement lancéolée à ovale, aiguës à la base, et à l'apex longuement acuminé à aigu, mesure 4-6(8) cm de long pour 0,8-1,5 cm de large. On compte environ 5 paires de nervures secondaires. Les inflorescences axillaires, comptent à 1 à 5 (6) fleurs, portées par un pédicelles long d'environ 1 mm. 
-Les fleurs aromatiques comportent des sépales ovales, à base légèrement connée et longs d'environ 2 mm. Les pétales externes sont blancs, linéaires, oblongs, obtus, poilus sur la face abaxiale, mesurent (8)10-11(13) x 2-3 mm. Les petales intérieurs, un peu plus courts et plus étroits. Les étamines sont longues de 0,5-0,75 mm. On compte 5-6 carpelles (ou plus ?). Le style avec son stigmate mesure 4 mm de long, est glabre, courbé et épaissi au-dessus de sa base. Les 5-6 monocarpes sont rhomboïdes-globuleux, obtus, contractés à la base en un stipe long de 1-2 mm, mesurent de (8)10-13 mm de long pour (7)9-10 mm de large, et contiennent chacun 1-3 graines, ovoïdes, noires (rouges à maturité), longues de 6-7 mm[6],[7],[8].
+Les fleurs aromatiques comportent des sépales ovales, à base légèrement connée et longs d'environ 2 mm. Les pétales externes sont blancs, linéaires, oblongs, obtus, poilus sur la face abaxiale, mesurent (8)10-11(13) x 2-3 mm. Les petales intérieurs, un peu plus courts et plus étroits. Les étamines sont longues de 0,5-0,75 mm. On compte 5-6 carpelles (ou plus ?). Le style avec son stigmate mesure 4 mm de long, est glabre, courbé et épaissi au-dessus de sa base. Les 5-6 monocarpes sont rhomboïdes-globuleux, obtus, contractés à la base en un stipe long de 1-2 mm, mesurent de (8)10-13 mm de long pour (7)9-10 mm de large, et contiennent chacun 1-3 graines, ovoïdes, noires (rouges à maturité), longues de 6-7 mm.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Xylopia frutescens depuis le sud du Mexique jusqu'au sud du Brésil (Rio de Janeiro et Minas Gerais)[6] en passant par l'Amérique centrale, la Colombie, la Venezuela, le Guyana, le Suriname, la Guyane, et le Pérou[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Xylopia frutescens depuis le sud du Mexique jusqu'au sud du Brésil (Rio de Janeiro et Minas Gerais) en passant par l'Amérique centrale, la Colombie, la Venezuela, le Guyana, le Suriname, la Guyane, et le Pérou.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xylopia frutescens est commun dans les forêts secondaires, et les forêts de terre ferme, semi-décidues et sempervirentes, en plaine ou en basse montagne, entre 50–700 m d'altitude[7]. En Guyane, il fleurit en septembre-octobre-novembre et fructifie en septembre[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xylopia frutescens est commun dans les forêts secondaires, et les forêts de terre ferme, semi-décidues et sempervirentes, en plaine ou en basse montagne, entre 50–700 m d'altitude. En Guyane, il fleurit en septembre-octobre-novembre et fructifie en septembre.
 </t>
         </is>
       </c>
@@ -607,13 +625,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, les graines parfumées, par ailleurs utilisées comme condiment, auraient des vertus aphrodisiaques, digestives et stomachiques[9].
-L'écorce aurait des propriétés fébrifuges selon des Wayãpi[2].
-Chez les Aluku, les fruits d'espèces proches (X. aromatica, X. longifolia) sont réputés soulager les douleurs abdominales et les feuilles seraient fébrifuges[3]. Cette plante est aussi utilisée en bain de vapeur pour ses vertus astringente afin de raffermir le vagin chez les populations Busi-nenge du Suriname[10].
-Chimie
-Dans tous ses organes, cette plante renferme renferment divers alcaloïdes, des tanins et des saponines. On a pu démontrer notamment des propriétés sédatives, antibactériennes, analgésiques, anti-inflammatoires et antispasmodiques[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, les graines parfumées, par ailleurs utilisées comme condiment, auraient des vertus aphrodisiaques, digestives et stomachiques.
+L'écorce aurait des propriétés fébrifuges selon des Wayãpi.
+Chez les Aluku, les fruits d'espèces proches (X. aromatica, X. longifolia) sont réputés soulager les douleurs abdominales et les feuilles seraient fébrifuges. Cette plante est aussi utilisée en bain de vapeur pour ses vertus astringente afin de raffermir le vagin chez les populations Busi-nenge du Suriname.
 </t>
         </is>
       </c>
@@ -639,12 +657,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans tous ses organes, cette plante renferme renferment divers alcaloïdes, des tanins et des saponines. On a pu démontrer notamment des propriétés sédatives, antibactériennes, analgésiques, anti-inflammatoires et antispasmodiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xylopia_frutescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xylopia_frutescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante[11] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante : 
 « LE JEJERECOU. 
 Cet arbre eſt de moyenne grandeur. Son tronc s'élève à quatre ou cinq pieds, ſur cinq à ſix pouces de diamètre. Soi l'écorce eſt liſſe, cendrée. Son bois eſt blanchâtre. Il pouſſe des branches droites &amp; chargées de quelques rameaux longs &amp; flexibles. Les branches &amp; les rameaux ſont velus &amp; garnis de feuilles alternes, ſeſſiles, éparſes, tiffes, verdâtres en deſſus, &amp; cendrées en deſſous, longues, étroites, ovales, terminées en pointe. On en a repréſenté une de grandeur naturelle. 
 Les fleurs naiſſent à l’aiſſelle des feuilles, le plus ſouvent ſolitaires; &amp; quelquefois deux à trois enſemble. Leur pédoncule eſt très court. 
